--- a/Data/weights.xlsx
+++ b/Data/weights.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D09CCE-25BE-4B3E-AF93-142C7D556C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF9D12C-F6AA-4A62-BD27-BAAF0DBEF5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>Cell-based Meat</t>
   </si>
@@ -103,17 +103,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>细胞肉</t>
-  </si>
-  <si>
-    <t>化学合成</t>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +132,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -152,8 +167,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,9 +527,11 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -518,137 +541,588 @@
       <c r="D1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2">
+        <v>44651</v>
+      </c>
+      <c r="G1" s="2">
+        <v>44681</v>
+      </c>
+      <c r="H1" s="2">
+        <v>44712</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
       <c r="C2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
